--- a/AAII_Financials/Quarterly/IBAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IBAL_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>IBAL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43131</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42766</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3100</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2000</v>
       </c>
       <c r="J8" s="3">
         <v>2000</v>
       </c>
       <c r="K8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L8" s="3">
         <v>4000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E9" s="3">
         <v>2000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
         <v>-300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>300</v>
-      </c>
-      <c r="M10" s="3">
-        <v>400</v>
       </c>
       <c r="N10" s="3">
         <v>400</v>
       </c>
       <c r="O10" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="P10" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,61 +1098,65 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="E17" s="3">
         <v>2400</v>
       </c>
       <c r="F17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G17" s="3">
         <v>2900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3000</v>
-      </c>
-      <c r="I17" s="3">
-        <v>2000</v>
       </c>
       <c r="J17" s="3">
         <v>2000</v>
       </c>
       <c r="K17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L17" s="3">
         <v>3700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-700</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
@@ -1134,34 +1164,37 @@
         <v>0</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>300</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
         <v>100</v>
       </c>
       <c r="O18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,11 +1221,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1222,52 +1256,58 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>100</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
         <v>0</v>
       </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>400</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>100</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1292,12 +1332,12 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
@@ -1310,61 +1350,67 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
         <v>100</v>
       </c>
       <c r="O23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1381,11 +1427,11 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1396,10 +1442,13 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1591,8 +1652,8 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1603,8 +1664,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,11 +1785,11 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1750,52 +1820,58 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43131</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42766</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2053,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1976,43 +2063,46 @@
         <v>2700</v>
       </c>
       <c r="E41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F41" s="3">
         <v>3800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,66 +2145,72 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E43" s="3">
         <v>600</v>
       </c>
       <c r="F43" s="3">
+        <v>600</v>
+      </c>
+      <c r="G43" s="3">
         <v>800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E44" s="3">
         <v>4100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4200</v>
-      </c>
-      <c r="G44" s="3">
-        <v>4300</v>
       </c>
       <c r="H44" s="3">
         <v>4300</v>
@@ -2123,28 +2219,31 @@
         <v>4300</v>
       </c>
       <c r="J44" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K44" s="3">
         <v>3700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3800</v>
-      </c>
-      <c r="N44" s="3">
-        <v>3700</v>
       </c>
       <c r="O44" s="3">
         <v>3700</v>
       </c>
       <c r="P44" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Q44" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2152,7 +2251,7 @@
         <v>1100</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
@@ -2161,34 +2260,37 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
       </c>
       <c r="J45" s="3">
+        <v>200</v>
+      </c>
+      <c r="K45" s="3">
         <v>300</v>
-      </c>
-      <c r="K45" s="3">
-        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
       <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2196,43 +2298,46 @@
         <v>8600</v>
       </c>
       <c r="E46" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F46" s="3">
         <v>8900</v>
-      </c>
-      <c r="F46" s="3">
-        <v>9100</v>
       </c>
       <c r="G46" s="3">
         <v>9100</v>
       </c>
       <c r="H46" s="3">
-        <v>9700</v>
+        <v>9100</v>
       </c>
       <c r="I46" s="3">
         <v>9700</v>
       </c>
       <c r="J46" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K46" s="3">
         <v>9000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2380,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2284,7 +2392,7 @@
         <v>1300</v>
       </c>
       <c r="E48" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F48" s="3">
         <v>1400</v>
@@ -2293,7 +2401,7 @@
         <v>1400</v>
       </c>
       <c r="H48" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="I48" s="3">
         <v>1300</v>
@@ -2311,16 +2419,19 @@
         <v>1300</v>
       </c>
       <c r="N48" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="O48" s="3">
         <v>1400</v>
       </c>
       <c r="P48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q48" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2460,7 +2580,7 @@
         <v>200</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
@@ -2472,7 +2592,7 @@
         <v>100</v>
       </c>
       <c r="I52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -2490,13 +2610,16 @@
         <v>0</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <v>100</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E54" s="3">
         <v>10000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10300</v>
-      </c>
-      <c r="F54" s="3">
-        <v>10600</v>
       </c>
       <c r="G54" s="3">
         <v>10600</v>
       </c>
       <c r="H54" s="3">
-        <v>11000</v>
+        <v>10600</v>
       </c>
       <c r="I54" s="3">
         <v>11000</v>
       </c>
       <c r="J54" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K54" s="3">
         <v>10300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,28 +2749,29 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
-      </c>
-      <c r="I57" s="3">
-        <v>500</v>
       </c>
       <c r="J57" s="3">
         <v>500</v>
@@ -2649,22 +2780,25 @@
         <v>500</v>
       </c>
       <c r="L57" s="3">
+        <v>500</v>
+      </c>
+      <c r="M57" s="3">
         <v>800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1000</v>
-      </c>
-      <c r="N57" s="3">
-        <v>500</v>
       </c>
       <c r="O57" s="3">
         <v>500</v>
       </c>
       <c r="P57" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,96 +2841,105 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E60" s="3">
         <v>1200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1000</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1400</v>
       </c>
       <c r="G60" s="3">
         <v>1400</v>
       </c>
       <c r="H60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I60" s="3">
         <v>1900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +2982,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1000</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1400</v>
       </c>
       <c r="G66" s="3">
         <v>1400</v>
       </c>
       <c r="H66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I66" s="3">
         <v>1900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,19 +3424,22 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E72" s="3">
         <v>3100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3500</v>
-      </c>
-      <c r="F72" s="3">
-        <v>3400</v>
       </c>
       <c r="G72" s="3">
         <v>3400</v>
@@ -3274,22 +3448,22 @@
         <v>3400</v>
       </c>
       <c r="I72" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="J72" s="3">
         <v>3200</v>
       </c>
       <c r="K72" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L72" s="3">
         <v>3300</v>
-      </c>
-      <c r="L72" s="3">
-        <v>3100</v>
       </c>
       <c r="M72" s="3">
         <v>3100</v>
       </c>
       <c r="N72" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="O72" s="3">
         <v>3000</v>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,19 +3612,22 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E76" s="3">
         <v>8900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9300</v>
-      </c>
-      <c r="F76" s="3">
-        <v>9200</v>
       </c>
       <c r="G76" s="3">
         <v>9200</v>
@@ -3450,22 +3636,22 @@
         <v>9200</v>
       </c>
       <c r="I76" s="3">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="J76" s="3">
         <v>9000</v>
       </c>
       <c r="K76" s="3">
+        <v>9000</v>
+      </c>
+      <c r="L76" s="3">
         <v>9100</v>
-      </c>
-      <c r="L76" s="3">
-        <v>8900</v>
       </c>
       <c r="M76" s="3">
         <v>8900</v>
       </c>
       <c r="N76" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="O76" s="3">
         <v>8800</v>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3">
         <v>8800</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43131</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42766</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,16 +3826,17 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -3646,7 +3845,7 @@
         <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1200</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3966,13 +4187,13 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -3981,11 +4202,11 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,25 +4313,28 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1000</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -4113,25 +4343,28 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>300</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4567,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4368,8 +4614,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1100</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-200</v>
       </c>
       <c r="F102" s="3">
         <v>-200</v>
       </c>
       <c r="G102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H102" s="3">
         <v>-500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>1200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IBAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IBAL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>IBAL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,81 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43131</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43039</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42947</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42855</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42766</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -744,140 +747,149 @@
         <v>2000</v>
       </c>
       <c r="E8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F8" s="3">
         <v>1700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3100</v>
-      </c>
-      <c r="J8" s="3">
-        <v>2000</v>
       </c>
       <c r="K8" s="3">
         <v>2000</v>
       </c>
       <c r="L8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M8" s="3">
         <v>4000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E9" s="3">
         <v>1900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>300</v>
-      </c>
-      <c r="N10" s="3">
-        <v>400</v>
       </c>
       <c r="O10" s="3">
         <v>400</v>
       </c>
       <c r="P10" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Q10" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,67 +1124,71 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E17" s="3">
         <v>2300</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2400</v>
       </c>
       <c r="F17" s="3">
         <v>2400</v>
       </c>
       <c r="G17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H17" s="3">
         <v>2900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3000</v>
-      </c>
-      <c r="J17" s="3">
-        <v>2000</v>
       </c>
       <c r="K17" s="3">
         <v>2000</v>
       </c>
       <c r="L17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M17" s="3">
         <v>3700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
@@ -1167,34 +1196,37 @@
         <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>100</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>300</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
         <v>100</v>
       </c>
       <c r="P18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1224,11 +1257,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1259,55 +1292,61 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
         <v>-200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>100</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
         <v>0</v>
       </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>400</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>100</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1335,12 +1374,12 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
@@ -1353,67 +1392,73 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
         <v>100</v>
       </c>
       <c r="P23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1430,11 +1475,11 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -1445,10 +1490,13 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>100</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>100</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1655,8 +1715,8 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1667,8 +1727,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1682,8 +1742,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1788,11 +1857,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1823,55 +1892,61 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>100</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>100</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43131</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43039</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42947</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42855</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42766</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2700</v>
+        <v>3200</v>
       </c>
       <c r="E41" s="3">
         <v>2700</v>
       </c>
       <c r="F41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G41" s="3">
         <v>3800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,72 +2237,78 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>700</v>
+      </c>
+      <c r="E43" s="3">
         <v>1000</v>
-      </c>
-      <c r="E43" s="3">
-        <v>600</v>
       </c>
       <c r="F43" s="3">
         <v>600</v>
       </c>
       <c r="G43" s="3">
+        <v>600</v>
+      </c>
+      <c r="H43" s="3">
         <v>800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E44" s="3">
         <v>3800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4200</v>
-      </c>
-      <c r="H44" s="3">
-        <v>4300</v>
       </c>
       <c r="I44" s="3">
         <v>4300</v>
@@ -2222,39 +2317,42 @@
         <v>4300</v>
       </c>
       <c r="K44" s="3">
+        <v>4300</v>
+      </c>
+      <c r="L44" s="3">
         <v>3700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3800</v>
-      </c>
-      <c r="O44" s="3">
-        <v>3700</v>
       </c>
       <c r="P44" s="3">
         <v>3700</v>
       </c>
       <c r="Q44" s="3">
+        <v>3700</v>
+      </c>
+      <c r="R44" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E45" s="3">
         <v>1100</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -2263,81 +2361,87 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>200</v>
       </c>
       <c r="K45" s="3">
+        <v>200</v>
+      </c>
+      <c r="L45" s="3">
         <v>300</v>
-      </c>
-      <c r="L45" s="3">
-        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
       </c>
       <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8600</v>
+        <v>9500</v>
       </c>
       <c r="E46" s="3">
         <v>8600</v>
       </c>
       <c r="F46" s="3">
+        <v>8600</v>
+      </c>
+      <c r="G46" s="3">
         <v>8900</v>
-      </c>
-      <c r="G46" s="3">
-        <v>9100</v>
       </c>
       <c r="H46" s="3">
         <v>9100</v>
       </c>
       <c r="I46" s="3">
-        <v>9700</v>
+        <v>9100</v>
       </c>
       <c r="J46" s="3">
         <v>9700</v>
       </c>
       <c r="K46" s="3">
+        <v>9700</v>
+      </c>
+      <c r="L46" s="3">
         <v>9000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2487,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2395,7 +2502,7 @@
         <v>1300</v>
       </c>
       <c r="F48" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="G48" s="3">
         <v>1400</v>
@@ -2404,7 +2511,7 @@
         <v>1400</v>
       </c>
       <c r="I48" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="J48" s="3">
         <v>1300</v>
@@ -2422,16 +2529,19 @@
         <v>1300</v>
       </c>
       <c r="O48" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="P48" s="3">
         <v>1400</v>
       </c>
       <c r="Q48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R48" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2583,7 +2702,7 @@
         <v>200</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
@@ -2595,7 +2714,7 @@
         <v>100</v>
       </c>
       <c r="J52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2613,13 +2732,16 @@
         <v>0</v>
       </c>
       <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
         <v>100</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E54" s="3">
         <v>10100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10300</v>
-      </c>
-      <c r="G54" s="3">
-        <v>10600</v>
       </c>
       <c r="H54" s="3">
         <v>10600</v>
       </c>
       <c r="I54" s="3">
-        <v>11000</v>
+        <v>10600</v>
       </c>
       <c r="J54" s="3">
         <v>11000</v>
       </c>
       <c r="K54" s="3">
+        <v>11000</v>
+      </c>
+      <c r="L54" s="3">
         <v>10300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,31 +2879,32 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
-      </c>
-      <c r="J57" s="3">
-        <v>500</v>
       </c>
       <c r="K57" s="3">
         <v>500</v>
@@ -2783,22 +2913,25 @@
         <v>500</v>
       </c>
       <c r="M57" s="3">
+        <v>500</v>
+      </c>
+      <c r="N57" s="3">
         <v>800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1000</v>
-      </c>
-      <c r="O57" s="3">
-        <v>500</v>
       </c>
       <c r="P57" s="3">
         <v>500</v>
       </c>
       <c r="Q57" s="3">
+        <v>500</v>
+      </c>
+      <c r="R57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,107 +2977,116 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1000</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1400</v>
       </c>
       <c r="H60" s="3">
         <v>1400</v>
       </c>
       <c r="I60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J60" s="3">
         <v>1900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2985,8 +3127,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1000</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1400</v>
       </c>
       <c r="H66" s="3">
         <v>1400</v>
       </c>
       <c r="I66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J66" s="3">
         <v>1900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,22 +3597,25 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E72" s="3">
         <v>2900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3500</v>
-      </c>
-      <c r="G72" s="3">
-        <v>3400</v>
       </c>
       <c r="H72" s="3">
         <v>3400</v>
@@ -3451,22 +3624,22 @@
         <v>3400</v>
       </c>
       <c r="J72" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="K72" s="3">
         <v>3200</v>
       </c>
       <c r="L72" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M72" s="3">
         <v>3300</v>
-      </c>
-      <c r="M72" s="3">
-        <v>3100</v>
       </c>
       <c r="N72" s="3">
         <v>3100</v>
       </c>
       <c r="O72" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="P72" s="3">
         <v>3000</v>
@@ -3474,8 +3647,11 @@
       <c r="Q72" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,22 +3797,25 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E76" s="3">
         <v>8700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9300</v>
-      </c>
-      <c r="G76" s="3">
-        <v>9200</v>
       </c>
       <c r="H76" s="3">
         <v>9200</v>
@@ -3639,22 +3824,22 @@
         <v>9200</v>
       </c>
       <c r="J76" s="3">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="K76" s="3">
         <v>9000</v>
       </c>
       <c r="L76" s="3">
+        <v>9000</v>
+      </c>
+      <c r="M76" s="3">
         <v>9100</v>
-      </c>
-      <c r="M76" s="3">
-        <v>8900</v>
       </c>
       <c r="N76" s="3">
         <v>8900</v>
       </c>
       <c r="O76" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="P76" s="3">
         <v>8800</v>
@@ -3662,8 +3847,11 @@
       <c r="Q76" s="3">
         <v>8800</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43131</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43039</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42947</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42855</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42766</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>100</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3836,10 +4034,10 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
@@ -3848,7 +4046,7 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -3874,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4322,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4118,46 +4334,49 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,13 +4394,14 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4190,13 +4410,13 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -4205,11 +4425,11 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
@@ -4222,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,28 +4542,31 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1000</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
         <v>-100</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -4346,25 +4575,28 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>300</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +4812,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4617,8 +4862,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1100</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-200</v>
       </c>
       <c r="G102" s="3">
         <v>-200</v>
       </c>
       <c r="H102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>1200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IBAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IBAL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>IBAL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43131</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43039</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42947</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42855</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42766</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="E8" s="3">
         <v>2000</v>
       </c>
       <c r="F8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G8" s="3">
         <v>1700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3100</v>
-      </c>
-      <c r="K8" s="3">
-        <v>2000</v>
       </c>
       <c r="L8" s="3">
         <v>2000</v>
       </c>
       <c r="M8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N8" s="3">
         <v>4000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E9" s="3">
         <v>1800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>400</v>
+      </c>
+      <c r="E10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>300</v>
-      </c>
-      <c r="O10" s="3">
-        <v>400</v>
       </c>
       <c r="P10" s="3">
         <v>400</v>
       </c>
       <c r="Q10" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="R10" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,73 +1151,77 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E17" s="3">
         <v>2100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2300</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2400</v>
       </c>
       <c r="G17" s="3">
         <v>2400</v>
       </c>
       <c r="H17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I17" s="3">
         <v>2900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3000</v>
-      </c>
-      <c r="K17" s="3">
-        <v>2000</v>
       </c>
       <c r="L17" s="3">
         <v>2000</v>
       </c>
       <c r="M17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N17" s="3">
         <v>3700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
@@ -1199,34 +1229,37 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>300</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
         <v>100</v>
       </c>
       <c r="Q18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1260,11 +1294,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1295,8 +1329,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1304,49 +1341,52 @@
         <v>0</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>100</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>200</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
         <v>0</v>
       </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>400</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>100</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1377,12 +1417,12 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
@@ -1395,8 +1435,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1404,49 +1447,52 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>300</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>100</v>
       </c>
       <c r="Q23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1454,14 +1500,14 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1478,11 +1524,11 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -1493,10 +1539,13 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>100</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>100</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1718,8 +1779,8 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1730,8 +1791,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1860,11 +1930,11 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1895,58 +1965,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>100</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>100</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>100</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>100</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43131</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43039</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42947</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42855</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42766</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E41" s="3">
         <v>3200</v>
-      </c>
-      <c r="E41" s="3">
-        <v>2700</v>
       </c>
       <c r="F41" s="3">
         <v>2700</v>
       </c>
       <c r="G41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H41" s="3">
         <v>3800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2249,49 +2342,52 @@
         <v>700</v>
       </c>
       <c r="E43" s="3">
+        <v>700</v>
+      </c>
+      <c r="F43" s="3">
         <v>1000</v>
-      </c>
-      <c r="F43" s="3">
-        <v>600</v>
       </c>
       <c r="G43" s="3">
         <v>600</v>
       </c>
       <c r="H43" s="3">
+        <v>600</v>
+      </c>
+      <c r="I43" s="3">
         <v>800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2299,19 +2395,19 @@
         <v>4300</v>
       </c>
       <c r="E44" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F44" s="3">
         <v>3800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4200</v>
-      </c>
-      <c r="I44" s="3">
-        <v>4300</v>
       </c>
       <c r="J44" s="3">
         <v>4300</v>
@@ -2320,42 +2416,45 @@
         <v>4300</v>
       </c>
       <c r="L44" s="3">
+        <v>4300</v>
+      </c>
+      <c r="M44" s="3">
         <v>3700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3800</v>
-      </c>
-      <c r="P44" s="3">
-        <v>3700</v>
       </c>
       <c r="Q44" s="3">
         <v>3700</v>
       </c>
       <c r="R44" s="3">
+        <v>3700</v>
+      </c>
+      <c r="S44" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E45" s="3">
         <v>1200</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1100</v>
       </c>
       <c r="F45" s="3">
         <v>1100</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -2364,84 +2463,90 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>200</v>
       </c>
       <c r="L45" s="3">
+        <v>200</v>
+      </c>
+      <c r="M45" s="3">
         <v>300</v>
-      </c>
-      <c r="M45" s="3">
-        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
       <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E46" s="3">
         <v>9500</v>
-      </c>
-      <c r="E46" s="3">
-        <v>8600</v>
       </c>
       <c r="F46" s="3">
         <v>8600</v>
       </c>
       <c r="G46" s="3">
+        <v>8600</v>
+      </c>
+      <c r="H46" s="3">
         <v>8900</v>
-      </c>
-      <c r="H46" s="3">
-        <v>9100</v>
       </c>
       <c r="I46" s="3">
         <v>9100</v>
       </c>
       <c r="J46" s="3">
-        <v>9700</v>
+        <v>9100</v>
       </c>
       <c r="K46" s="3">
         <v>9700</v>
       </c>
       <c r="L46" s="3">
+        <v>9700</v>
+      </c>
+      <c r="M46" s="3">
         <v>9000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2505,7 +2613,7 @@
         <v>1300</v>
       </c>
       <c r="G48" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H48" s="3">
         <v>1400</v>
@@ -2514,7 +2622,7 @@
         <v>1400</v>
       </c>
       <c r="J48" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K48" s="3">
         <v>1300</v>
@@ -2532,16 +2640,19 @@
         <v>1300</v>
       </c>
       <c r="P48" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="Q48" s="3">
         <v>1400</v>
       </c>
       <c r="R48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S48" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2705,7 +2825,7 @@
         <v>200</v>
       </c>
       <c r="G52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H52" s="3">
         <v>100</v>
@@ -2717,7 +2837,7 @@
         <v>100</v>
       </c>
       <c r="K52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2735,13 +2855,16 @@
         <v>0</v>
       </c>
       <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
         <v>100</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E54" s="3">
         <v>11000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10300</v>
-      </c>
-      <c r="H54" s="3">
-        <v>10600</v>
       </c>
       <c r="I54" s="3">
         <v>10600</v>
       </c>
       <c r="J54" s="3">
-        <v>11000</v>
+        <v>10600</v>
       </c>
       <c r="K54" s="3">
         <v>11000</v>
       </c>
       <c r="L54" s="3">
+        <v>11000</v>
+      </c>
+      <c r="M54" s="3">
         <v>10300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,34 +3010,35 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
-      </c>
-      <c r="K57" s="3">
-        <v>500</v>
       </c>
       <c r="L57" s="3">
         <v>500</v>
@@ -2916,22 +3047,25 @@
         <v>500</v>
       </c>
       <c r="N57" s="3">
+        <v>500</v>
+      </c>
+      <c r="O57" s="3">
         <v>800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1000</v>
-      </c>
-      <c r="P57" s="3">
-        <v>500</v>
       </c>
       <c r="Q57" s="3">
         <v>500</v>
       </c>
       <c r="R57" s="3">
+        <v>500</v>
+      </c>
+      <c r="S57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,108 +3114,117 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1400</v>
       </c>
       <c r="I60" s="3">
         <v>1400</v>
       </c>
       <c r="J60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K60" s="3">
         <v>1900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3089,7 +3232,7 @@
         <v>600</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E66" s="3">
         <v>2400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1000</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1400</v>
       </c>
       <c r="I66" s="3">
         <v>1400</v>
       </c>
       <c r="J66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K66" s="3">
         <v>1900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,8 +3771,11 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3609,16 +3783,16 @@
         <v>2800</v>
       </c>
       <c r="E72" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F72" s="3">
         <v>2900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3500</v>
-      </c>
-      <c r="H72" s="3">
-        <v>3400</v>
       </c>
       <c r="I72" s="3">
         <v>3400</v>
@@ -3627,22 +3801,22 @@
         <v>3400</v>
       </c>
       <c r="K72" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="L72" s="3">
         <v>3200</v>
       </c>
       <c r="M72" s="3">
+        <v>3200</v>
+      </c>
+      <c r="N72" s="3">
         <v>3300</v>
-      </c>
-      <c r="N72" s="3">
-        <v>3100</v>
       </c>
       <c r="O72" s="3">
         <v>3100</v>
       </c>
       <c r="P72" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="Q72" s="3">
         <v>3000</v>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,8 +3983,11 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3809,16 +3995,16 @@
         <v>8600</v>
       </c>
       <c r="E76" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F76" s="3">
         <v>8700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9300</v>
-      </c>
-      <c r="H76" s="3">
-        <v>9200</v>
       </c>
       <c r="I76" s="3">
         <v>9200</v>
@@ -3827,22 +4013,22 @@
         <v>9200</v>
       </c>
       <c r="K76" s="3">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="L76" s="3">
         <v>9000</v>
       </c>
       <c r="M76" s="3">
+        <v>9000</v>
+      </c>
+      <c r="N76" s="3">
         <v>9100</v>
-      </c>
-      <c r="N76" s="3">
-        <v>8900</v>
       </c>
       <c r="O76" s="3">
         <v>8900</v>
       </c>
       <c r="P76" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="Q76" s="3">
         <v>8800</v>
@@ -3850,8 +4036,11 @@
       <c r="R76" s="3">
         <v>8800</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43131</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43039</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42947</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42855</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42766</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>100</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>100</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4037,10 +4236,10 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
@@ -4049,7 +4248,7 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1200</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4404,7 +4625,7 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -4413,13 +4634,13 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4428,11 +4649,11 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4554,22 +4784,22 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-1000</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -4578,25 +4808,28 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>300</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E102" s="3">
         <v>600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1100</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-200</v>
       </c>
       <c r="H102" s="3">
         <v>-200</v>
       </c>
       <c r="I102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>1200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IBAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IBAL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>IBAL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,270 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43312</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43220</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43131</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43039</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42947</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42855</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42766</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F8" s="3">
         <v>2700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>4000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>3100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F9" s="3">
         <v>2300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>2000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>2100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>2500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>3400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>2300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>2000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>-300</v>
-      </c>
-      <c r="H10" s="3">
-        <v>300</v>
-      </c>
-      <c r="I10" s="3">
-        <v>400</v>
       </c>
       <c r="J10" s="3">
         <v>300</v>
       </c>
       <c r="K10" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L10" s="3">
         <v>300</v>
       </c>
       <c r="M10" s="3">
+        <v>500</v>
+      </c>
+      <c r="N10" s="3">
+        <v>300</v>
+      </c>
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,31 +1062,37 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-600</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1081,8 +1121,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1204,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F17" s="3">
         <v>2700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>300</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,13 +1345,15 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1297,14 +1365,14 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1332,61 +1400,73 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>100</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>400</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>100</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1420,15 +1500,15 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
@@ -1438,61 +1518,73 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>100</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1500,20 +1592,20 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-200</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1527,14 +1619,14 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
@@ -1542,10 +1634,16 @@
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>200</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1782,11 +1904,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -1794,11 +1916,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1809,8 +1931,14 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,13 +2049,19 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1933,14 +2073,14 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1968,61 +2108,73 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43312</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43220</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43131</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43039</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42947</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42855</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42766</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2399,69 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F41" s="3">
         <v>2500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>3200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>3800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>4000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>4300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>4700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>4800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>4400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>5100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>4500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>3800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>4000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>3900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,114 +2513,132 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F43" s="3">
         <v>700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>500</v>
-      </c>
-      <c r="K43" s="3">
-        <v>600</v>
-      </c>
-      <c r="L43" s="3">
-        <v>400</v>
       </c>
       <c r="M43" s="3">
         <v>600</v>
       </c>
       <c r="N43" s="3">
+        <v>400</v>
+      </c>
+      <c r="O43" s="3">
+        <v>600</v>
+      </c>
+      <c r="P43" s="3">
         <v>800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="E44" s="3">
         <v>4300</v>
       </c>
       <c r="F44" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G44" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H44" s="3">
         <v>3800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>4100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>4400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>4200</v>
-      </c>
-      <c r="J44" s="3">
-        <v>4300</v>
-      </c>
-      <c r="K44" s="3">
-        <v>4300</v>
       </c>
       <c r="L44" s="3">
         <v>4300</v>
       </c>
       <c r="M44" s="3">
+        <v>4300</v>
+      </c>
+      <c r="N44" s="3">
+        <v>4300</v>
+      </c>
+      <c r="O44" s="3">
         <v>3700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>3400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>4400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>3800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>3700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>3700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2448,105 +2646,117 @@
         <v>1100</v>
       </c>
       <c r="E45" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F45" s="3">
         <v>1100</v>
       </c>
       <c r="G45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H45" s="3">
         <v>1100</v>
       </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>200</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>500</v>
-      </c>
-      <c r="R45" s="3">
-        <v>400</v>
       </c>
       <c r="S45" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>400</v>
+      </c>
+      <c r="U45" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F46" s="3">
         <v>8700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>9500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>8600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>8600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>8900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>9100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>9100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>9700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>9700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>9000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>9400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>10100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>9500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>9200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>8600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2808,14 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2616,19 +2832,19 @@
         <v>1300</v>
       </c>
       <c r="H48" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="I48" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="J48" s="3">
         <v>1400</v>
       </c>
       <c r="K48" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L48" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="M48" s="3">
         <v>1300</v>
@@ -2643,16 +2859,22 @@
         <v>1300</v>
       </c>
       <c r="Q48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S48" s="3">
         <v>1400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2926,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,16 +3044,22 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F52" s="3">
         <v>200</v>
@@ -2828,10 +3068,10 @@
         <v>200</v>
       </c>
       <c r="H52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
@@ -2840,10 +3080,10 @@
         <v>100</v>
       </c>
       <c r="L52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2858,13 +3098,19 @@
         <v>0</v>
       </c>
       <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
         <v>100</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F54" s="3">
         <v>10200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>11000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>10100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>10000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>10300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>10600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>10600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>11000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>11000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>10300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>10800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>11500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>10900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>10600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>10100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3271,69 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
-      </c>
-      <c r="F57" s="3">
-        <v>500</v>
-      </c>
-      <c r="G57" s="3">
-        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>500</v>
       </c>
       <c r="I57" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="J57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K57" s="3">
         <v>600</v>
       </c>
       <c r="L57" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N57" s="3">
         <v>500</v>
       </c>
       <c r="O57" s="3">
+        <v>500</v>
+      </c>
+      <c r="P57" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q57" s="3">
         <v>800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,128 +3385,146 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>900</v>
+      </c>
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F60" s="3">
         <v>1000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>600</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -3276,8 +3562,14 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3621,14 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,8 +3798,14 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3497,52 +3813,58 @@
         <v>1600</v>
       </c>
       <c r="E66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G66" s="3">
         <v>2400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F72" s="3">
         <v>2800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>2800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>2900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>3100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>3500</v>
-      </c>
-      <c r="I72" s="3">
-        <v>3400</v>
-      </c>
-      <c r="J72" s="3">
-        <v>3400</v>
       </c>
       <c r="K72" s="3">
         <v>3400</v>
       </c>
       <c r="L72" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M72" s="3">
+        <v>3400</v>
+      </c>
+      <c r="N72" s="3">
         <v>3200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>3200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>3300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>3100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>3100</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>3000</v>
-      </c>
-      <c r="R72" s="3">
-        <v>3000</v>
       </c>
       <c r="S72" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>3000</v>
+      </c>
+      <c r="U72" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F76" s="3">
         <v>8600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>8600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>8700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>8900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>9300</v>
-      </c>
-      <c r="I76" s="3">
-        <v>9200</v>
-      </c>
-      <c r="J76" s="3">
-        <v>9200</v>
       </c>
       <c r="K76" s="3">
         <v>9200</v>
       </c>
       <c r="L76" s="3">
+        <v>9200</v>
+      </c>
+      <c r="M76" s="3">
+        <v>9200</v>
+      </c>
+      <c r="N76" s="3">
         <v>9000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>9000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>9100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>8900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>8900</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>8800</v>
-      </c>
-      <c r="R76" s="3">
-        <v>8800</v>
       </c>
       <c r="S76" s="3">
         <v>8800</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>8800</v>
+      </c>
+      <c r="U76" s="3">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43312</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43220</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43131</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43039</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42947</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42855</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42766</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4620,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4239,22 +4637,22 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -4277,8 +4675,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>1200</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,50 +5056,52 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
@@ -4669,8 +5111,14 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5229,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-1000</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>300</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5547,14 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5114,8 +5606,14 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5665,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>1200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IBAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IBAL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>IBAL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,152 +665,158 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43312</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43220</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43131</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43039</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42947</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42855</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42766</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="E8" s="3">
         <v>2300</v>
       </c>
       <c r="F8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G8" s="3">
         <v>2700</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2000</v>
       </c>
       <c r="H8" s="3">
         <v>2000</v>
       </c>
       <c r="I8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J8" s="3">
         <v>1700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3100</v>
-      </c>
-      <c r="N8" s="3">
-        <v>2000</v>
       </c>
       <c r="O8" s="3">
         <v>2000</v>
       </c>
       <c r="P8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q8" s="3">
         <v>4000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -821,114 +827,120 @@
         <v>2200</v>
       </c>
       <c r="F9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G9" s="3">
         <v>2300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
       </c>
       <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>300</v>
-      </c>
-      <c r="R10" s="3">
-        <v>400</v>
       </c>
       <c r="S10" s="3">
         <v>400</v>
       </c>
       <c r="T10" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="U10" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,16 +1084,19 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-600</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1094,8 +1113,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1127,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,91 +1231,95 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>2400</v>
       </c>
       <c r="J17" s="3">
         <v>2400</v>
       </c>
       <c r="K17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L17" s="3">
         <v>2900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3000</v>
-      </c>
-      <c r="N17" s="3">
-        <v>2000</v>
       </c>
       <c r="O17" s="3">
         <v>2000</v>
       </c>
       <c r="P17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q17" s="3">
         <v>3700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
@@ -1298,34 +1327,37 @@
         <v>0</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>300</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3">
         <v>100</v>
       </c>
       <c r="T18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="U18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,17 +1379,18 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1371,11 +1404,11 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1406,67 +1439,73 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>100</v>
+      </c>
+      <c r="E21" s="3">
         <v>500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
         <v>0</v>
       </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>100</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
         <v>0</v>
       </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>400</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>100</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
       <c r="U21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1506,12 +1545,12 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
@@ -1524,67 +1563,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-100</v>
       </c>
       <c r="G23" s="3">
         <v>-100</v>
       </c>
       <c r="H23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>300</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S23" s="3">
         <v>100</v>
       </c>
       <c r="T23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="U23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1592,23 +1637,23 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1625,11 +1670,11 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
@@ -1640,10 +1685,13 @@
         <v>0</v>
       </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>100</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>100</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
         <v>0</v>
       </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,31 +1935,34 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1910,8 +1970,8 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -1922,8 +1982,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1937,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,17 +2121,20 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2079,11 +2148,11 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2114,67 +2183,73 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>100</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
         <v>0</v>
       </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>100</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
         <v>0</v>
       </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43312</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43220</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43131</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43039</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42947</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42855</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42766</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E41" s="3">
         <v>2800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3200</v>
-      </c>
-      <c r="H41" s="3">
-        <v>2700</v>
       </c>
       <c r="I41" s="3">
         <v>2700</v>
       </c>
       <c r="J41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K41" s="3">
         <v>3800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,75 +2608,81 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="E43" s="3">
         <v>1100</v>
       </c>
       <c r="F43" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="G43" s="3">
         <v>700</v>
       </c>
       <c r="H43" s="3">
+        <v>700</v>
+      </c>
+      <c r="I43" s="3">
         <v>1000</v>
-      </c>
-      <c r="I43" s="3">
-        <v>600</v>
       </c>
       <c r="J43" s="3">
         <v>600</v>
       </c>
       <c r="K43" s="3">
+        <v>600</v>
+      </c>
+      <c r="L43" s="3">
         <v>800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E44" s="3">
         <v>4200</v>
-      </c>
-      <c r="E44" s="3">
-        <v>4300</v>
       </c>
       <c r="F44" s="3">
         <v>4300</v>
@@ -2596,19 +2691,19 @@
         <v>4300</v>
       </c>
       <c r="H44" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I44" s="3">
         <v>3800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4200</v>
-      </c>
-      <c r="L44" s="3">
-        <v>4300</v>
       </c>
       <c r="M44" s="3">
         <v>4300</v>
@@ -2617,33 +2712,36 @@
         <v>4300</v>
       </c>
       <c r="O44" s="3">
+        <v>4300</v>
+      </c>
+      <c r="P44" s="3">
         <v>3700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3800</v>
-      </c>
-      <c r="S44" s="3">
-        <v>3700</v>
       </c>
       <c r="T44" s="3">
         <v>3700</v>
       </c>
       <c r="U44" s="3">
+        <v>3700</v>
+      </c>
+      <c r="V44" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="E45" s="3">
         <v>1100</v>
@@ -2652,16 +2750,16 @@
         <v>1100</v>
       </c>
       <c r="G45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H45" s="3">
         <v>1200</v>
-      </c>
-      <c r="H45" s="3">
-        <v>1100</v>
       </c>
       <c r="I45" s="3">
         <v>1100</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -2670,93 +2768,99 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>200</v>
       </c>
       <c r="O45" s="3">
+        <v>200</v>
+      </c>
+      <c r="P45" s="3">
         <v>300</v>
-      </c>
-      <c r="P45" s="3">
-        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
       <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E46" s="3">
         <v>9200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9500</v>
-      </c>
-      <c r="H46" s="3">
-        <v>8600</v>
       </c>
       <c r="I46" s="3">
         <v>8600</v>
       </c>
       <c r="J46" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K46" s="3">
         <v>8900</v>
-      </c>
-      <c r="K46" s="3">
-        <v>9100</v>
       </c>
       <c r="L46" s="3">
         <v>9100</v>
       </c>
       <c r="M46" s="3">
-        <v>9700</v>
+        <v>9100</v>
       </c>
       <c r="N46" s="3">
         <v>9700</v>
       </c>
       <c r="O46" s="3">
+        <v>9700</v>
+      </c>
+      <c r="P46" s="3">
         <v>9000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,13 +2918,16 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E48" s="3">
         <v>1300</v>
@@ -2838,7 +2945,7 @@
         <v>1300</v>
       </c>
       <c r="J48" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K48" s="3">
         <v>1400</v>
@@ -2847,7 +2954,7 @@
         <v>1400</v>
       </c>
       <c r="M48" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="N48" s="3">
         <v>1300</v>
@@ -2865,16 +2972,19 @@
         <v>1300</v>
       </c>
       <c r="S48" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="T48" s="3">
         <v>1400</v>
       </c>
       <c r="U48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V48" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3062,7 +3181,7 @@
         <v>100</v>
       </c>
       <c r="F52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G52" s="3">
         <v>200</v>
@@ -3074,7 +3193,7 @@
         <v>200</v>
       </c>
       <c r="J52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K52" s="3">
         <v>100</v>
@@ -3086,7 +3205,7 @@
         <v>100</v>
       </c>
       <c r="N52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -3104,13 +3223,16 @@
         <v>0</v>
       </c>
       <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
         <v>100</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10500</v>
+        <v>10800</v>
       </c>
       <c r="E54" s="3">
         <v>10500</v>
       </c>
       <c r="F54" s="3">
+        <v>10500</v>
+      </c>
+      <c r="G54" s="3">
         <v>10200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10300</v>
-      </c>
-      <c r="K54" s="3">
-        <v>10600</v>
       </c>
       <c r="L54" s="3">
         <v>10600</v>
       </c>
       <c r="M54" s="3">
-        <v>11000</v>
+        <v>10600</v>
       </c>
       <c r="N54" s="3">
         <v>11000</v>
       </c>
       <c r="O54" s="3">
+        <v>11000</v>
+      </c>
+      <c r="P54" s="3">
         <v>10300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>11500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,43 +3402,44 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E57" s="3">
         <v>500</v>
       </c>
       <c r="F57" s="3">
+        <v>500</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>600</v>
-      </c>
-      <c r="N57" s="3">
-        <v>500</v>
       </c>
       <c r="O57" s="3">
         <v>500</v>
@@ -3318,22 +3448,25 @@
         <v>500</v>
       </c>
       <c r="Q57" s="3">
+        <v>500</v>
+      </c>
+      <c r="R57" s="3">
         <v>800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1000</v>
-      </c>
-      <c r="S57" s="3">
-        <v>500</v>
       </c>
       <c r="T57" s="3">
         <v>500</v>
       </c>
       <c r="U57" s="3">
+        <v>500</v>
+      </c>
+      <c r="V57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,126 +3524,135 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E59" s="3">
         <v>1100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E60" s="3">
         <v>1600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1000</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1400</v>
       </c>
       <c r="L60" s="3">
         <v>1400</v>
       </c>
       <c r="M60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N60" s="3">
         <v>1900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3518,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>600</v>
@@ -3527,7 +3669,7 @@
         <v>600</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -3568,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3627,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1000</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1400</v>
       </c>
       <c r="L66" s="3">
         <v>1400</v>
       </c>
       <c r="M66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N66" s="3">
         <v>1900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,8 +4292,11 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4131,25 +4304,25 @@
         <v>3100</v>
       </c>
       <c r="E72" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F72" s="3">
         <v>2600</v>
-      </c>
-      <c r="F72" s="3">
-        <v>2800</v>
       </c>
       <c r="G72" s="3">
         <v>2800</v>
       </c>
       <c r="H72" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I72" s="3">
         <v>2900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3500</v>
-      </c>
-      <c r="K72" s="3">
-        <v>3400</v>
       </c>
       <c r="L72" s="3">
         <v>3400</v>
@@ -4158,22 +4331,22 @@
         <v>3400</v>
       </c>
       <c r="N72" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="O72" s="3">
         <v>3200</v>
       </c>
       <c r="P72" s="3">
+        <v>3200</v>
+      </c>
+      <c r="Q72" s="3">
         <v>3300</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>3100</v>
       </c>
       <c r="R72" s="3">
         <v>3100</v>
       </c>
       <c r="S72" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="T72" s="3">
         <v>3000</v>
@@ -4181,8 +4354,11 @@
       <c r="U72" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,8 +4540,11 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4367,25 +4552,25 @@
         <v>8900</v>
       </c>
       <c r="E76" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F76" s="3">
         <v>8500</v>
-      </c>
-      <c r="F76" s="3">
-        <v>8600</v>
       </c>
       <c r="G76" s="3">
         <v>8600</v>
       </c>
       <c r="H76" s="3">
+        <v>8600</v>
+      </c>
+      <c r="I76" s="3">
         <v>8700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9300</v>
-      </c>
-      <c r="K76" s="3">
-        <v>9200</v>
       </c>
       <c r="L76" s="3">
         <v>9200</v>
@@ -4394,22 +4579,22 @@
         <v>9200</v>
       </c>
       <c r="N76" s="3">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="O76" s="3">
         <v>9000</v>
       </c>
       <c r="P76" s="3">
+        <v>9000</v>
+      </c>
+      <c r="Q76" s="3">
         <v>9100</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>8900</v>
       </c>
       <c r="R76" s="3">
         <v>8900</v>
       </c>
       <c r="S76" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="T76" s="3">
         <v>8800</v>
@@ -4417,8 +4602,11 @@
       <c r="U76" s="3">
         <v>8800</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43312</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43220</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43131</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43039</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42947</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42855</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42766</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>100</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
         <v>0</v>
       </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4643,10 +4841,10 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
@@ -4655,7 +4853,7 @@
         <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -4681,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
         <v>200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1200</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5070,13 +5290,13 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -5085,13 +5305,13 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
       </c>
       <c r="M91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -5100,11 +5320,11 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
@@ -5117,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5247,28 +5476,28 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-1000</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
         <v>-100</v>
       </c>
       <c r="M94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -5277,25 +5506,28 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>300</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5612,8 +5857,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-700</v>
       </c>
       <c r="E102" s="3">
         <v>100</v>
       </c>
       <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1100</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-200</v>
       </c>
       <c r="K102" s="3">
         <v>-200</v>
       </c>
       <c r="L102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>1200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IBAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IBAL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>IBAL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,163 +665,170 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43585</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43496</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43404</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43312</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43220</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43131</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43039</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42947</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42855</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42766</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E8" s="3">
         <v>2600</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2300</v>
       </c>
       <c r="F8" s="3">
         <v>2300</v>
       </c>
       <c r="G8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H8" s="3">
         <v>2700</v>
-      </c>
-      <c r="H8" s="3">
-        <v>2000</v>
       </c>
       <c r="I8" s="3">
         <v>2000</v>
       </c>
       <c r="J8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K8" s="3">
         <v>1700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3100</v>
-      </c>
-      <c r="O8" s="3">
-        <v>2000</v>
       </c>
       <c r="P8" s="3">
         <v>2000</v>
       </c>
       <c r="Q8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R8" s="3">
         <v>4000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="E9" s="3">
         <v>2200</v>
@@ -830,117 +837,123 @@
         <v>2200</v>
       </c>
       <c r="G9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H9" s="3">
         <v>2300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
         <v>400</v>
-      </c>
-      <c r="E10" s="3">
-        <v>100</v>
       </c>
       <c r="F10" s="3">
         <v>100</v>
       </c>
       <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>300</v>
-      </c>
-      <c r="S10" s="3">
-        <v>400</v>
       </c>
       <c r="T10" s="3">
         <v>400</v>
       </c>
       <c r="U10" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="V10" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1096,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-600</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1116,8 +1136,8 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,97 +1258,101 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E17" s="3">
         <v>2600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2300</v>
-      </c>
-      <c r="J17" s="3">
-        <v>2400</v>
       </c>
       <c r="K17" s="3">
         <v>2400</v>
       </c>
       <c r="L17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M17" s="3">
         <v>2900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3000</v>
-      </c>
-      <c r="O17" s="3">
-        <v>2000</v>
       </c>
       <c r="P17" s="3">
         <v>2000</v>
       </c>
       <c r="Q17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R17" s="3">
         <v>3700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
@@ -1330,34 +1360,37 @@
         <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>100</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>300</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T18" s="3">
         <v>100</v>
       </c>
       <c r="U18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="V18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,11 +1423,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1407,11 +1441,11 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1442,70 +1476,76 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E21" s="3">
         <v>100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
         <v>0</v>
       </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>100</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>200</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
         <v>0</v>
       </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>400</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>100</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
       <c r="V21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1548,12 +1588,12 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
@@ -1566,97 +1606,103 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-100</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
       </c>
       <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>300</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T23" s="3">
         <v>100</v>
       </c>
       <c r="U23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="V23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1673,11 +1719,11 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
@@ -1688,10 +1734,13 @@
         <v>0</v>
       </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>200</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>200</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>100</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
         <v>0</v>
       </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>200</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>100</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
         <v>0</v>
       </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1964,8 +2025,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1973,8 +2034,8 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -1985,8 +2046,8 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,11 +2203,11 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2151,11 +2221,11 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2186,70 +2256,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>200</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>100</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
         <v>0</v>
       </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>200</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>100</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
         <v>0</v>
       </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43585</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43496</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43404</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43312</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43220</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43131</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43039</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42947</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42855</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42766</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E41" s="3">
         <v>2100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3200</v>
-      </c>
-      <c r="I41" s="3">
-        <v>2700</v>
       </c>
       <c r="J41" s="3">
         <v>2700</v>
       </c>
       <c r="K41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L41" s="3">
         <v>3800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,81 +2701,87 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1600</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1100</v>
       </c>
       <c r="F43" s="3">
         <v>1100</v>
       </c>
       <c r="G43" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="H43" s="3">
         <v>700</v>
       </c>
       <c r="I43" s="3">
+        <v>700</v>
+      </c>
+      <c r="J43" s="3">
         <v>1000</v>
-      </c>
-      <c r="J43" s="3">
-        <v>600</v>
       </c>
       <c r="K43" s="3">
         <v>600</v>
       </c>
       <c r="L43" s="3">
+        <v>600</v>
+      </c>
+      <c r="M43" s="3">
         <v>800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E44" s="3">
         <v>4500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4200</v>
-      </c>
-      <c r="F44" s="3">
-        <v>4300</v>
       </c>
       <c r="G44" s="3">
         <v>4300</v>
@@ -2694,19 +2790,19 @@
         <v>4300</v>
       </c>
       <c r="I44" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J44" s="3">
         <v>3800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4200</v>
-      </c>
-      <c r="M44" s="3">
-        <v>4300</v>
       </c>
       <c r="N44" s="3">
         <v>4300</v>
@@ -2715,36 +2811,39 @@
         <v>4300</v>
       </c>
       <c r="P44" s="3">
+        <v>4300</v>
+      </c>
+      <c r="Q44" s="3">
         <v>3700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3800</v>
-      </c>
-      <c r="T44" s="3">
-        <v>3700</v>
       </c>
       <c r="U44" s="3">
         <v>3700</v>
       </c>
       <c r="V44" s="3">
+        <v>3700</v>
+      </c>
+      <c r="W44" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E45" s="3">
         <v>1300</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1100</v>
       </c>
       <c r="F45" s="3">
         <v>1100</v>
@@ -2753,16 +2852,16 @@
         <v>1100</v>
       </c>
       <c r="H45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I45" s="3">
         <v>1200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1100</v>
       </c>
       <c r="J45" s="3">
         <v>1100</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -2771,96 +2870,102 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>200</v>
       </c>
       <c r="P45" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q45" s="3">
         <v>300</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
       </c>
       <c r="S45" s="3">
+        <v>100</v>
+      </c>
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E46" s="3">
         <v>9500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9500</v>
-      </c>
-      <c r="I46" s="3">
-        <v>8600</v>
       </c>
       <c r="J46" s="3">
         <v>8600</v>
       </c>
       <c r="K46" s="3">
+        <v>8600</v>
+      </c>
+      <c r="L46" s="3">
         <v>8900</v>
-      </c>
-      <c r="L46" s="3">
-        <v>9100</v>
       </c>
       <c r="M46" s="3">
         <v>9100</v>
       </c>
       <c r="N46" s="3">
-        <v>9700</v>
+        <v>9100</v>
       </c>
       <c r="O46" s="3">
         <v>9700</v>
       </c>
       <c r="P46" s="3">
+        <v>9700</v>
+      </c>
+      <c r="Q46" s="3">
         <v>9000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2930,7 +3038,7 @@
         <v>1200</v>
       </c>
       <c r="E48" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F48" s="3">
         <v>1300</v>
@@ -2948,7 +3056,7 @@
         <v>1300</v>
       </c>
       <c r="K48" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="L48" s="3">
         <v>1400</v>
@@ -2957,7 +3065,7 @@
         <v>1400</v>
       </c>
       <c r="N48" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="O48" s="3">
         <v>1300</v>
@@ -2975,16 +3083,19 @@
         <v>1300</v>
       </c>
       <c r="T48" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="U48" s="3">
         <v>1400</v>
       </c>
       <c r="V48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W48" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,13 +3286,16 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E52" s="3">
         <v>100</v>
@@ -3184,7 +3304,7 @@
         <v>100</v>
       </c>
       <c r="G52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H52" s="3">
         <v>200</v>
@@ -3196,7 +3316,7 @@
         <v>200</v>
       </c>
       <c r="K52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L52" s="3">
         <v>100</v>
@@ -3208,7 +3328,7 @@
         <v>100</v>
       </c>
       <c r="O52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -3226,13 +3346,16 @@
         <v>0</v>
       </c>
       <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
         <v>100</v>
       </c>
-      <c r="V52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E54" s="3">
         <v>10800</v>
-      </c>
-      <c r="E54" s="3">
-        <v>10500</v>
       </c>
       <c r="F54" s="3">
         <v>10500</v>
       </c>
       <c r="G54" s="3">
+        <v>10500</v>
+      </c>
+      <c r="H54" s="3">
         <v>10200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10300</v>
-      </c>
-      <c r="L54" s="3">
-        <v>10600</v>
       </c>
       <c r="M54" s="3">
         <v>10600</v>
       </c>
       <c r="N54" s="3">
-        <v>11000</v>
+        <v>10600</v>
       </c>
       <c r="O54" s="3">
         <v>11000</v>
       </c>
       <c r="P54" s="3">
+        <v>11000</v>
+      </c>
+      <c r="Q54" s="3">
         <v>10300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>11500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,46 +3533,47 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
-      </c>
-      <c r="E57" s="3">
-        <v>500</v>
       </c>
       <c r="F57" s="3">
         <v>500</v>
       </c>
       <c r="G57" s="3">
+        <v>500</v>
+      </c>
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
-      </c>
-      <c r="O57" s="3">
-        <v>500</v>
       </c>
       <c r="P57" s="3">
         <v>500</v>
@@ -3451,22 +3582,25 @@
         <v>500</v>
       </c>
       <c r="R57" s="3">
+        <v>500</v>
+      </c>
+      <c r="S57" s="3">
         <v>800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1000</v>
-      </c>
-      <c r="T57" s="3">
-        <v>500</v>
       </c>
       <c r="U57" s="3">
         <v>500</v>
       </c>
       <c r="V57" s="3">
+        <v>500</v>
+      </c>
+      <c r="W57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,132 +3661,141 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1000</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1400</v>
       </c>
       <c r="M60" s="3">
         <v>1400</v>
       </c>
       <c r="N60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O60" s="3">
         <v>1900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3663,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>600</v>
@@ -3672,7 +3815,7 @@
         <v>600</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1000</v>
-      </c>
-      <c r="L66" s="3">
-        <v>1400</v>
       </c>
       <c r="M66" s="3">
         <v>1400</v>
       </c>
       <c r="N66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O66" s="3">
         <v>1900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,37 +4466,40 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3100</v>
+        <v>2800</v>
       </c>
       <c r="E72" s="3">
         <v>3100</v>
       </c>
       <c r="F72" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G72" s="3">
         <v>2600</v>
-      </c>
-      <c r="G72" s="3">
-        <v>2800</v>
       </c>
       <c r="H72" s="3">
         <v>2800</v>
       </c>
       <c r="I72" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J72" s="3">
         <v>2900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3500</v>
-      </c>
-      <c r="L72" s="3">
-        <v>3400</v>
       </c>
       <c r="M72" s="3">
         <v>3400</v>
@@ -4334,22 +4508,22 @@
         <v>3400</v>
       </c>
       <c r="O72" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="P72" s="3">
         <v>3200</v>
       </c>
       <c r="Q72" s="3">
+        <v>3200</v>
+      </c>
+      <c r="R72" s="3">
         <v>3300</v>
-      </c>
-      <c r="R72" s="3">
-        <v>3100</v>
       </c>
       <c r="S72" s="3">
         <v>3100</v>
       </c>
       <c r="T72" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="U72" s="3">
         <v>3000</v>
@@ -4357,8 +4531,11 @@
       <c r="V72" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,37 +4726,40 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8900</v>
+        <v>8600</v>
       </c>
       <c r="E76" s="3">
         <v>8900</v>
       </c>
       <c r="F76" s="3">
+        <v>8900</v>
+      </c>
+      <c r="G76" s="3">
         <v>8500</v>
-      </c>
-      <c r="G76" s="3">
-        <v>8600</v>
       </c>
       <c r="H76" s="3">
         <v>8600</v>
       </c>
       <c r="I76" s="3">
+        <v>8600</v>
+      </c>
+      <c r="J76" s="3">
         <v>8700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9300</v>
-      </c>
-      <c r="L76" s="3">
-        <v>9200</v>
       </c>
       <c r="M76" s="3">
         <v>9200</v>
@@ -4582,22 +4768,22 @@
         <v>9200</v>
       </c>
       <c r="O76" s="3">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="P76" s="3">
         <v>9000</v>
       </c>
       <c r="Q76" s="3">
+        <v>9000</v>
+      </c>
+      <c r="R76" s="3">
         <v>9100</v>
-      </c>
-      <c r="R76" s="3">
-        <v>8900</v>
       </c>
       <c r="S76" s="3">
         <v>8900</v>
       </c>
       <c r="T76" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="U76" s="3">
         <v>8800</v>
@@ -4605,8 +4791,11 @@
       <c r="V76" s="3">
         <v>8800</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43585</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43496</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43404</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43312</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43220</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43131</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43039</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42947</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42855</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42766</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>200</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>100</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
         <v>0</v>
       </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4844,10 +5043,10 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
@@ -4856,7 +5055,7 @@
         <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1200</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5293,13 +5514,13 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -5308,13 +5529,13 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
       </c>
       <c r="N91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -5323,11 +5544,11 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5479,28 +5709,28 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
         <v>-100</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1000</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M94" s="3">
         <v>-100</v>
       </c>
       <c r="N94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -5509,25 +5739,28 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>300</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-700</v>
-      </c>
-      <c r="E102" s="3">
-        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>100</v>
       </c>
       <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1100</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-200</v>
       </c>
       <c r="L102" s="3">
         <v>-200</v>
       </c>
       <c r="M102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>1200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IBAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IBAL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>IBAL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,173 +665,180 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43951</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43769</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43677</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43585</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43496</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43404</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43312</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43220</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43131</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43039</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42947</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42855</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42766</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E8" s="3">
         <v>2700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2600</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2300</v>
       </c>
       <c r="G8" s="3">
         <v>2300</v>
       </c>
       <c r="H8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I8" s="3">
         <v>2700</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2000</v>
       </c>
       <c r="J8" s="3">
         <v>2000</v>
       </c>
       <c r="K8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L8" s="3">
         <v>1700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3100</v>
-      </c>
-      <c r="P8" s="3">
-        <v>2000</v>
       </c>
       <c r="Q8" s="3">
         <v>2000</v>
       </c>
       <c r="R8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S8" s="3">
         <v>4000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E9" s="3">
         <v>2600</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2200</v>
       </c>
       <c r="F9" s="3">
         <v>2200</v>
@@ -840,120 +847,126 @@
         <v>2200</v>
       </c>
       <c r="H9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I9" s="3">
         <v>2300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>500</v>
+      </c>
+      <c r="E10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>400</v>
-      </c>
-      <c r="F10" s="3">
-        <v>100</v>
       </c>
       <c r="G10" s="3">
         <v>100</v>
       </c>
       <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>300</v>
-      </c>
-      <c r="T10" s="3">
-        <v>400</v>
       </c>
       <c r="U10" s="3">
         <v>400</v>
       </c>
       <c r="V10" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="W10" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,22 +1124,25 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-600</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1139,8 +1159,8 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,8 +1285,9 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1268,94 +1295,97 @@
         <v>3200</v>
       </c>
       <c r="E17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F17" s="3">
         <v>2600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2300</v>
-      </c>
-      <c r="K17" s="3">
-        <v>2400</v>
       </c>
       <c r="L17" s="3">
         <v>2400</v>
       </c>
       <c r="M17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N17" s="3">
         <v>2900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3000</v>
-      </c>
-      <c r="P17" s="3">
-        <v>2000</v>
       </c>
       <c r="Q17" s="3">
         <v>2000</v>
       </c>
       <c r="R17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S17" s="3">
         <v>3700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-500</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
@@ -1363,34 +1393,37 @@
         <v>0</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>100</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>300</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U18" s="3">
         <v>100</v>
       </c>
       <c r="V18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="W18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,23 +1447,24 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1444,11 +1478,11 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1479,73 +1513,79 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
         <v>0</v>
       </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>100</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>200</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
         <v>0</v>
       </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>400</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
       <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>100</v>
       </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
       <c r="W21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1591,12 +1631,12 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
@@ -1609,103 +1649,109 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-100</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
       </c>
       <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>200</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>300</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U23" s="3">
         <v>100</v>
       </c>
       <c r="V23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="W23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1722,11 +1768,11 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
@@ -1737,10 +1783,13 @@
         <v>0</v>
       </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,8 +1853,11 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1813,64 +1865,67 @@
         <v>-300</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>200</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>200</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>100</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
         <v>0</v>
       </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1878,64 +1933,67 @@
         <v>-300</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>200</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>100</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
         <v>0</v>
       </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2028,8 +2089,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2037,8 +2098,8 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -2049,8 +2110,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,23 +2261,26 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2224,11 +2294,11 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2259,8 +2329,11 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2268,64 +2341,67 @@
         <v>-300</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>100</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>200</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>100</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
         <v>0</v>
       </c>
       <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,8 +2465,11 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2398,134 +2477,140 @@
         <v>-300</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>100</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>200</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>100</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
         <v>0</v>
       </c>
       <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43951</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43769</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43677</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43585</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43496</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43404</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43312</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43220</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43131</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43039</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42947</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42855</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42766</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E41" s="3">
         <v>2700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3200</v>
-      </c>
-      <c r="J41" s="3">
-        <v>2700</v>
       </c>
       <c r="K41" s="3">
         <v>2700</v>
       </c>
       <c r="L41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="M41" s="3">
         <v>3800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,87 +2794,93 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E43" s="3">
         <v>1000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1600</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1100</v>
       </c>
       <c r="G43" s="3">
         <v>1100</v>
       </c>
       <c r="H43" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="I43" s="3">
         <v>700</v>
       </c>
       <c r="J43" s="3">
+        <v>700</v>
+      </c>
+      <c r="K43" s="3">
         <v>1000</v>
-      </c>
-      <c r="K43" s="3">
-        <v>600</v>
       </c>
       <c r="L43" s="3">
         <v>600</v>
       </c>
       <c r="M43" s="3">
+        <v>600</v>
+      </c>
+      <c r="N43" s="3">
         <v>800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E44" s="3">
         <v>4100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4200</v>
-      </c>
-      <c r="G44" s="3">
-        <v>4300</v>
       </c>
       <c r="H44" s="3">
         <v>4300</v>
@@ -2793,19 +2889,19 @@
         <v>4300</v>
       </c>
       <c r="J44" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K44" s="3">
         <v>3800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4200</v>
-      </c>
-      <c r="N44" s="3">
-        <v>4300</v>
       </c>
       <c r="O44" s="3">
         <v>4300</v>
@@ -2814,39 +2910,42 @@
         <v>4300</v>
       </c>
       <c r="Q44" s="3">
+        <v>4300</v>
+      </c>
+      <c r="R44" s="3">
         <v>3700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3800</v>
-      </c>
-      <c r="U44" s="3">
-        <v>3700</v>
       </c>
       <c r="V44" s="3">
         <v>3700</v>
       </c>
       <c r="W44" s="3">
+        <v>3700</v>
+      </c>
+      <c r="X44" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E45" s="3">
         <v>1200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1300</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1100</v>
       </c>
       <c r="G45" s="3">
         <v>1100</v>
@@ -2855,16 +2954,16 @@
         <v>1100</v>
       </c>
       <c r="I45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J45" s="3">
         <v>1200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>1100</v>
       </c>
       <c r="K45" s="3">
         <v>1100</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -2873,34 +2972,37 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>200</v>
       </c>
       <c r="Q45" s="3">
+        <v>200</v>
+      </c>
+      <c r="R45" s="3">
         <v>300</v>
-      </c>
-      <c r="R45" s="3">
-        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
       </c>
       <c r="T45" s="3">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2908,64 +3010,67 @@
         <v>8900</v>
       </c>
       <c r="E46" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F46" s="3">
         <v>9500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9500</v>
-      </c>
-      <c r="J46" s="3">
-        <v>8600</v>
       </c>
       <c r="K46" s="3">
         <v>8600</v>
       </c>
       <c r="L46" s="3">
+        <v>8600</v>
+      </c>
+      <c r="M46" s="3">
         <v>8900</v>
-      </c>
-      <c r="M46" s="3">
-        <v>9100</v>
       </c>
       <c r="N46" s="3">
         <v>9100</v>
       </c>
       <c r="O46" s="3">
-        <v>9700</v>
+        <v>9100</v>
       </c>
       <c r="P46" s="3">
         <v>9700</v>
       </c>
       <c r="Q46" s="3">
+        <v>9700</v>
+      </c>
+      <c r="R46" s="3">
         <v>9000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>10100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>9200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,19 +3134,22 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E48" s="3">
         <v>1200</v>
       </c>
       <c r="F48" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G48" s="3">
         <v>1300</v>
@@ -3059,7 +3167,7 @@
         <v>1300</v>
       </c>
       <c r="L48" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="M48" s="3">
         <v>1400</v>
@@ -3068,7 +3176,7 @@
         <v>1400</v>
       </c>
       <c r="O48" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="P48" s="3">
         <v>1300</v>
@@ -3086,16 +3194,19 @@
         <v>1300</v>
       </c>
       <c r="U48" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="V48" s="3">
         <v>1400</v>
       </c>
       <c r="W48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="X48" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,16 +3406,19 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>100</v>
+      </c>
+      <c r="E52" s="3">
         <v>200</v>
-      </c>
-      <c r="E52" s="3">
-        <v>100</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
@@ -3307,7 +3427,7 @@
         <v>100</v>
       </c>
       <c r="H52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I52" s="3">
         <v>200</v>
@@ -3319,7 +3439,7 @@
         <v>200</v>
       </c>
       <c r="L52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M52" s="3">
         <v>100</v>
@@ -3331,7 +3451,7 @@
         <v>100</v>
       </c>
       <c r="P52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -3349,13 +3469,16 @@
         <v>0</v>
       </c>
       <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
         <v>100</v>
       </c>
-      <c r="W52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E54" s="3">
         <v>10300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10800</v>
-      </c>
-      <c r="F54" s="3">
-        <v>10500</v>
       </c>
       <c r="G54" s="3">
         <v>10500</v>
       </c>
       <c r="H54" s="3">
+        <v>10500</v>
+      </c>
+      <c r="I54" s="3">
         <v>10200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10300</v>
-      </c>
-      <c r="M54" s="3">
-        <v>10600</v>
       </c>
       <c r="N54" s="3">
         <v>10600</v>
       </c>
       <c r="O54" s="3">
-        <v>11000</v>
+        <v>10600</v>
       </c>
       <c r="P54" s="3">
         <v>11000</v>
       </c>
       <c r="Q54" s="3">
+        <v>11000</v>
+      </c>
+      <c r="R54" s="3">
         <v>10300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>11500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>10100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,49 +3664,50 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>600</v>
-      </c>
-      <c r="F57" s="3">
-        <v>500</v>
       </c>
       <c r="G57" s="3">
         <v>500</v>
       </c>
       <c r="H57" s="3">
+        <v>500</v>
+      </c>
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
-      </c>
-      <c r="P57" s="3">
-        <v>500</v>
       </c>
       <c r="Q57" s="3">
         <v>500</v>
@@ -3585,22 +3716,25 @@
         <v>500</v>
       </c>
       <c r="S57" s="3">
+        <v>500</v>
+      </c>
+      <c r="T57" s="3">
         <v>800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1000</v>
-      </c>
-      <c r="U57" s="3">
-        <v>500</v>
       </c>
       <c r="V57" s="3">
         <v>500</v>
       </c>
       <c r="W57" s="3">
+        <v>500</v>
+      </c>
+      <c r="X57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,138 +3798,147 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1000</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1400</v>
       </c>
       <c r="N60" s="3">
         <v>1400</v>
       </c>
       <c r="O60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P60" s="3">
         <v>1900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3809,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>600</v>
@@ -3818,7 +3961,7 @@
         <v>600</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1000</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1400</v>
       </c>
       <c r="N66" s="3">
         <v>1400</v>
       </c>
       <c r="O66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P66" s="3">
         <v>1900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,40 +4640,43 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E72" s="3">
         <v>2800</v>
-      </c>
-      <c r="E72" s="3">
-        <v>3100</v>
       </c>
       <c r="F72" s="3">
         <v>3100</v>
       </c>
       <c r="G72" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H72" s="3">
         <v>2600</v>
-      </c>
-      <c r="H72" s="3">
-        <v>2800</v>
       </c>
       <c r="I72" s="3">
         <v>2800</v>
       </c>
       <c r="J72" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K72" s="3">
         <v>2900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3500</v>
-      </c>
-      <c r="M72" s="3">
-        <v>3400</v>
       </c>
       <c r="N72" s="3">
         <v>3400</v>
@@ -4511,22 +4685,22 @@
         <v>3400</v>
       </c>
       <c r="P72" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="Q72" s="3">
         <v>3200</v>
       </c>
       <c r="R72" s="3">
+        <v>3200</v>
+      </c>
+      <c r="S72" s="3">
         <v>3300</v>
-      </c>
-      <c r="S72" s="3">
-        <v>3100</v>
       </c>
       <c r="T72" s="3">
         <v>3100</v>
       </c>
       <c r="U72" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="V72" s="3">
         <v>3000</v>
@@ -4534,8 +4708,11 @@
       <c r="W72" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,40 +4912,43 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E76" s="3">
         <v>8600</v>
-      </c>
-      <c r="E76" s="3">
-        <v>8900</v>
       </c>
       <c r="F76" s="3">
         <v>8900</v>
       </c>
       <c r="G76" s="3">
+        <v>8900</v>
+      </c>
+      <c r="H76" s="3">
         <v>8500</v>
-      </c>
-      <c r="H76" s="3">
-        <v>8600</v>
       </c>
       <c r="I76" s="3">
         <v>8600</v>
       </c>
       <c r="J76" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K76" s="3">
         <v>8700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9300</v>
-      </c>
-      <c r="M76" s="3">
-        <v>9200</v>
       </c>
       <c r="N76" s="3">
         <v>9200</v>
@@ -4771,22 +4957,22 @@
         <v>9200</v>
       </c>
       <c r="P76" s="3">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="Q76" s="3">
         <v>9000</v>
       </c>
       <c r="R76" s="3">
+        <v>9000</v>
+      </c>
+      <c r="S76" s="3">
         <v>9100</v>
-      </c>
-      <c r="S76" s="3">
-        <v>8900</v>
       </c>
       <c r="T76" s="3">
         <v>8900</v>
       </c>
       <c r="U76" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="V76" s="3">
         <v>8800</v>
@@ -4794,8 +4980,11 @@
       <c r="W76" s="3">
         <v>8800</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,78 +5048,84 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43951</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43769</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43677</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43585</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43496</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43404</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43312</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43220</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43131</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43039</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42947</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42855</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42766</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4938,64 +5133,67 @@
         <v>-300</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>100</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>200</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>100</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
         <v>0</v>
       </c>
       <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5046,10 +5245,10 @@
         <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
@@ -5058,7 +5257,7 @@
         <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
         <v>600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1200</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,13 +5719,14 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -5517,13 +5738,13 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5532,13 +5753,13 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
       </c>
       <c r="O91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -5547,11 +5768,11 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,13 +5921,16 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -5712,28 +5942,28 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-1000</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N94" s="3">
         <v>-100</v>
       </c>
       <c r="O94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -5742,25 +5972,28 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>300</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E102" s="3">
         <v>600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-700</v>
-      </c>
-      <c r="F102" s="3">
-        <v>100</v>
       </c>
       <c r="G102" s="3">
         <v>100</v>
       </c>
       <c r="H102" s="3">
+        <v>100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1100</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-200</v>
       </c>
       <c r="M102" s="3">
         <v>-200</v>
       </c>
       <c r="N102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O102" s="3">
         <v>-500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>1200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IBAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IBAL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>IBAL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,172 +665,179 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43951</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43769</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43677</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43585</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43496</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43404</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43312</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43220</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43131</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43039</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42947</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42855</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42766</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2600</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2300</v>
       </c>
       <c r="H8" s="3">
         <v>2300</v>
       </c>
       <c r="I8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J8" s="3">
         <v>2700</v>
-      </c>
-      <c r="J8" s="3">
-        <v>2000</v>
       </c>
       <c r="K8" s="3">
         <v>2000</v>
       </c>
       <c r="L8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M8" s="3">
         <v>1700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3100</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>2000</v>
       </c>
       <c r="R8" s="3">
         <v>2000</v>
       </c>
       <c r="S8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T8" s="3">
         <v>4000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -838,10 +845,10 @@
         <v>1800</v>
       </c>
       <c r="E9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F9" s="3">
         <v>2600</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2200</v>
       </c>
       <c r="G9" s="3">
         <v>2200</v>
@@ -850,123 +857,129 @@
         <v>2200</v>
       </c>
       <c r="I9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J9" s="3">
         <v>2300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
         <v>500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>400</v>
-      </c>
-      <c r="G10" s="3">
-        <v>100</v>
       </c>
       <c r="H10" s="3">
         <v>100</v>
       </c>
       <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>300</v>
-      </c>
-      <c r="U10" s="3">
-        <v>400</v>
       </c>
       <c r="V10" s="3">
         <v>400</v>
       </c>
       <c r="W10" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="X10" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,25 +1144,28 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>600</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-600</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1162,8 +1182,8 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,109 +1312,113 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="E17" s="3">
         <v>3200</v>
       </c>
       <c r="F17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G17" s="3">
         <v>2600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2300</v>
-      </c>
-      <c r="L17" s="3">
-        <v>2400</v>
       </c>
       <c r="M17" s="3">
         <v>2400</v>
       </c>
       <c r="N17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O17" s="3">
         <v>2900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3000</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>2000</v>
       </c>
       <c r="R17" s="3">
         <v>2000</v>
       </c>
       <c r="S17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T17" s="3">
         <v>3700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
@@ -1396,34 +1426,37 @@
         <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>300</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V18" s="3">
         <v>100</v>
       </c>
       <c r="W18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="X18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,26 +1481,27 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1481,11 +1515,11 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1516,76 +1550,82 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
         <v>0</v>
       </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>100</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>200</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
         <v>0</v>
       </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>400</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
       <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>100</v>
       </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
       <c r="X21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1634,12 +1674,12 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
@@ -1652,76 +1692,82 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-100</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
       </c>
       <c r="K23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>200</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>300</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V23" s="3">
         <v>100</v>
       </c>
       <c r="W23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="X23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1729,32 +1775,32 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-200</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -1771,11 +1817,11 @@
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
@@ -1786,10 +1832,13 @@
         <v>0</v>
       </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>-300</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>200</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>100</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
       <c r="W26" s="3">
         <v>0</v>
       </c>
       <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>-300</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>200</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>100</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
         <v>0</v>
       </c>
       <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2092,8 +2153,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2101,8 +2162,8 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -2113,8 +2174,8 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,26 +2331,29 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2297,11 +2367,11 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2332,76 +2402,82 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>-300</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>200</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>100</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
         <v>0</v>
       </c>
       <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>-300</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>200</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>100</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
         <v>0</v>
       </c>
       <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43951</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43769</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43677</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43585</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43496</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43404</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43312</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43220</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43131</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43039</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42947</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42855</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42766</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2747,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3200</v>
-      </c>
-      <c r="K41" s="3">
-        <v>2700</v>
       </c>
       <c r="L41" s="3">
         <v>2700</v>
       </c>
       <c r="M41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="N41" s="3">
         <v>3800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,93 +2887,99 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E43" s="3">
         <v>1300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1600</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1100</v>
       </c>
       <c r="H43" s="3">
         <v>1100</v>
       </c>
       <c r="I43" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="J43" s="3">
         <v>700</v>
       </c>
       <c r="K43" s="3">
+        <v>700</v>
+      </c>
+      <c r="L43" s="3">
         <v>1000</v>
-      </c>
-      <c r="L43" s="3">
-        <v>600</v>
       </c>
       <c r="M43" s="3">
         <v>600</v>
       </c>
       <c r="N43" s="3">
+        <v>600</v>
+      </c>
+      <c r="O43" s="3">
         <v>800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4200</v>
-      </c>
-      <c r="H44" s="3">
-        <v>4300</v>
       </c>
       <c r="I44" s="3">
         <v>4300</v>
@@ -2892,19 +2988,19 @@
         <v>4300</v>
       </c>
       <c r="K44" s="3">
+        <v>4300</v>
+      </c>
+      <c r="L44" s="3">
         <v>3800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4200</v>
-      </c>
-      <c r="O44" s="3">
-        <v>4300</v>
       </c>
       <c r="P44" s="3">
         <v>4300</v>
@@ -2913,28 +3009,31 @@
         <v>4300</v>
       </c>
       <c r="R44" s="3">
+        <v>4300</v>
+      </c>
+      <c r="S44" s="3">
         <v>3700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3800</v>
-      </c>
-      <c r="V44" s="3">
-        <v>3700</v>
       </c>
       <c r="W44" s="3">
         <v>3700</v>
       </c>
       <c r="X44" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Y44" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2942,13 +3041,13 @@
         <v>1100</v>
       </c>
       <c r="E45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F45" s="3">
         <v>1200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1300</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1100</v>
       </c>
       <c r="H45" s="3">
         <v>1100</v>
@@ -2957,16 +3056,16 @@
         <v>1100</v>
       </c>
       <c r="J45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K45" s="3">
         <v>1200</v>
-      </c>
-      <c r="K45" s="3">
-        <v>1100</v>
       </c>
       <c r="L45" s="3">
         <v>1100</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -2975,102 +3074,108 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>200</v>
       </c>
       <c r="R45" s="3">
+        <v>200</v>
+      </c>
+      <c r="S45" s="3">
         <v>300</v>
-      </c>
-      <c r="S45" s="3">
-        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
       </c>
       <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
         <v>200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8900</v>
+        <v>9300</v>
       </c>
       <c r="E46" s="3">
         <v>8900</v>
       </c>
       <c r="F46" s="3">
+        <v>8900</v>
+      </c>
+      <c r="G46" s="3">
         <v>9500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9500</v>
-      </c>
-      <c r="K46" s="3">
-        <v>8600</v>
       </c>
       <c r="L46" s="3">
         <v>8600</v>
       </c>
       <c r="M46" s="3">
+        <v>8600</v>
+      </c>
+      <c r="N46" s="3">
         <v>8900</v>
-      </c>
-      <c r="N46" s="3">
-        <v>9100</v>
       </c>
       <c r="O46" s="3">
         <v>9100</v>
       </c>
       <c r="P46" s="3">
-        <v>9700</v>
+        <v>9100</v>
       </c>
       <c r="Q46" s="3">
         <v>9700</v>
       </c>
       <c r="R46" s="3">
+        <v>9700</v>
+      </c>
+      <c r="S46" s="3">
         <v>9000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>10100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>9500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>9200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3242,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3146,13 +3254,13 @@
         <v>1300</v>
       </c>
       <c r="E48" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F48" s="3">
         <v>1200</v>
       </c>
       <c r="G48" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H48" s="3">
         <v>1300</v>
@@ -3170,7 +3278,7 @@
         <v>1300</v>
       </c>
       <c r="M48" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="N48" s="3">
         <v>1400</v>
@@ -3179,7 +3287,7 @@
         <v>1400</v>
       </c>
       <c r="P48" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="Q48" s="3">
         <v>1300</v>
@@ -3197,16 +3305,19 @@
         <v>1300</v>
       </c>
       <c r="V48" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="W48" s="3">
         <v>1400</v>
       </c>
       <c r="X48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Y48" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,19 +3526,22 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>200</v>
+      </c>
+      <c r="E52" s="3">
         <v>100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>200</v>
-      </c>
-      <c r="F52" s="3">
-        <v>100</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
@@ -3430,7 +3550,7 @@
         <v>100</v>
       </c>
       <c r="I52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J52" s="3">
         <v>200</v>
@@ -3442,7 +3562,7 @@
         <v>200</v>
       </c>
       <c r="M52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N52" s="3">
         <v>100</v>
@@ -3454,7 +3574,7 @@
         <v>100</v>
       </c>
       <c r="Q52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -3472,13 +3592,16 @@
         <v>0</v>
       </c>
       <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
         <v>100</v>
       </c>
-      <c r="X52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E54" s="3">
         <v>10400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10800</v>
-      </c>
-      <c r="G54" s="3">
-        <v>10500</v>
       </c>
       <c r="H54" s="3">
         <v>10500</v>
       </c>
       <c r="I54" s="3">
+        <v>10500</v>
+      </c>
+      <c r="J54" s="3">
         <v>10200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10300</v>
-      </c>
-      <c r="N54" s="3">
-        <v>10600</v>
       </c>
       <c r="O54" s="3">
         <v>10600</v>
       </c>
       <c r="P54" s="3">
-        <v>11000</v>
+        <v>10600</v>
       </c>
       <c r="Q54" s="3">
         <v>11000</v>
       </c>
       <c r="R54" s="3">
+        <v>11000</v>
+      </c>
+      <c r="S54" s="3">
         <v>10300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>11500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>10600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>10100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3795,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3674,43 +3805,43 @@
         <v>400</v>
       </c>
       <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
-      </c>
-      <c r="G57" s="3">
-        <v>500</v>
       </c>
       <c r="H57" s="3">
         <v>500</v>
       </c>
       <c r="I57" s="3">
+        <v>500</v>
+      </c>
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>600</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>500</v>
       </c>
       <c r="R57" s="3">
         <v>500</v>
@@ -3719,22 +3850,25 @@
         <v>500</v>
       </c>
       <c r="T57" s="3">
+        <v>500</v>
+      </c>
+      <c r="U57" s="3">
         <v>800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1000</v>
-      </c>
-      <c r="V57" s="3">
-        <v>500</v>
       </c>
       <c r="W57" s="3">
         <v>500</v>
       </c>
       <c r="X57" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,144 +3935,153 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="3">
         <v>2000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1000</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1400</v>
       </c>
       <c r="O60" s="3">
         <v>1400</v>
       </c>
       <c r="P60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3955,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>600</v>
@@ -3964,7 +4107,7 @@
         <v>600</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -4005,8 +4148,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E66" s="3">
         <v>2000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1000</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1400</v>
       </c>
       <c r="O66" s="3">
         <v>1400</v>
       </c>
       <c r="P66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,43 +4814,46 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E72" s="3">
         <v>2500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2800</v>
-      </c>
-      <c r="F72" s="3">
-        <v>3100</v>
       </c>
       <c r="G72" s="3">
         <v>3100</v>
       </c>
       <c r="H72" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I72" s="3">
         <v>2600</v>
-      </c>
-      <c r="I72" s="3">
-        <v>2800</v>
       </c>
       <c r="J72" s="3">
         <v>2800</v>
       </c>
       <c r="K72" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L72" s="3">
         <v>2900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3500</v>
-      </c>
-      <c r="N72" s="3">
-        <v>3400</v>
       </c>
       <c r="O72" s="3">
         <v>3400</v>
@@ -4688,22 +4862,22 @@
         <v>3400</v>
       </c>
       <c r="Q72" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="R72" s="3">
         <v>3200</v>
       </c>
       <c r="S72" s="3">
+        <v>3200</v>
+      </c>
+      <c r="T72" s="3">
         <v>3300</v>
-      </c>
-      <c r="T72" s="3">
-        <v>3100</v>
       </c>
       <c r="U72" s="3">
         <v>3100</v>
       </c>
       <c r="V72" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="W72" s="3">
         <v>3000</v>
@@ -4711,8 +4885,11 @@
       <c r="X72" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,43 +5098,46 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E76" s="3">
         <v>8300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8600</v>
-      </c>
-      <c r="F76" s="3">
-        <v>8900</v>
       </c>
       <c r="G76" s="3">
         <v>8900</v>
       </c>
       <c r="H76" s="3">
+        <v>8900</v>
+      </c>
+      <c r="I76" s="3">
         <v>8500</v>
-      </c>
-      <c r="I76" s="3">
-        <v>8600</v>
       </c>
       <c r="J76" s="3">
         <v>8600</v>
       </c>
       <c r="K76" s="3">
+        <v>8600</v>
+      </c>
+      <c r="L76" s="3">
         <v>8700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9300</v>
-      </c>
-      <c r="N76" s="3">
-        <v>9200</v>
       </c>
       <c r="O76" s="3">
         <v>9200</v>
@@ -4960,22 +5146,22 @@
         <v>9200</v>
       </c>
       <c r="Q76" s="3">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="R76" s="3">
         <v>9000</v>
       </c>
       <c r="S76" s="3">
+        <v>9000</v>
+      </c>
+      <c r="T76" s="3">
         <v>9100</v>
-      </c>
-      <c r="T76" s="3">
-        <v>8900</v>
       </c>
       <c r="U76" s="3">
         <v>8900</v>
       </c>
       <c r="V76" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="W76" s="3">
         <v>8800</v>
@@ -4983,8 +5169,11 @@
       <c r="X76" s="3">
         <v>8800</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43951</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43769</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43677</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43585</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43496</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43404</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43312</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43220</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43131</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43039</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42947</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42855</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42766</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>-300</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>200</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>100</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
       <c r="W81" s="3">
         <v>0</v>
       </c>
       <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5248,10 +5447,10 @@
         <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
@@ -5260,7 +5459,7 @@
         <v>100</v>
       </c>
       <c r="P83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1200</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,17 +5940,18 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
@@ -5741,13 +5962,13 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -5756,13 +5977,13 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O91" s="3">
         <v>-100</v>
       </c>
       <c r="P91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -5771,11 +5992,11 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
@@ -5788,8 +6009,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,17 +6151,20 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -5945,28 +6175,28 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
       </c>
       <c r="K94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-1000</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O94" s="3">
         <v>-100</v>
       </c>
       <c r="P94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -5975,25 +6205,28 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>300</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6533,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6358,8 +6604,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6675,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-700</v>
-      </c>
-      <c r="G102" s="3">
-        <v>100</v>
       </c>
       <c r="H102" s="3">
         <v>100</v>
       </c>
       <c r="I102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1100</v>
-      </c>
-      <c r="M102" s="3">
-        <v>-200</v>
       </c>
       <c r="N102" s="3">
         <v>-200</v>
       </c>
       <c r="O102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P102" s="3">
         <v>-500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>1200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>200</v>
       </c>
     </row>
